--- a/doc/ショッピングカート詳細設計.xlsx
+++ b/doc/ショッピングカート詳細設計.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\systena\Documents\【虎の穴】WebJava初級 2019Q2\20190804\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20472" windowHeight="7164"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>詳細設計書</t>
     <rPh sb="0" eb="2">
@@ -445,6 +445,150 @@
     <t>役割</t>
     <rPh sb="0" eb="2">
       <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションにカートの内容を保存する</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+ setnum1()  ※注文された数量を保存する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+ getnum1()  ※注文された数量を取り出す</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションに保存されているカートの数量を取り出す</t>
+    <rPh sb="6" eb="8">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新たに注文されたカート内の数量にセッションに保存済数量を加えて画面に表示する</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セッションに最新のカート数量を保存する。</t>
+    <rPh sb="6" eb="8">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>スウリョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以上を全商品に対して実行する。</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・クラス図
+・カート追加
+・カート表示</t>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数見</t>
+    <rPh sb="0" eb="1">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「???」箇所を穴埋め</t>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アナウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -456,7 +600,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,6 +699,22 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -704,7 +864,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +964,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,6 +974,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4254,9 +4423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E5:P12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4322,26 +4489,26 @@
       <c r="P9" s="14"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4364,7 +4531,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4435,6 +4602,26 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="28">
+        <v>43684</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="29" t="s">
         <v>11</v>
@@ -4520,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:P30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -4546,105 +4733,115 @@
       </c>
     </row>
     <row r="5" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O5" s="35" t="s">
+      <c r="O5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="35" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O8" s="35" t="s">
+      <c r="O8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="P8" s="34" t="s">
+      <c r="P8" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="9:16" x14ac:dyDescent="0.2">
       <c r="K9" s="2"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O11" s="35" t="s">
+      <c r="O11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
     </row>
     <row r="13" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O14" s="35" t="s">
+      <c r="O14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="9:16" x14ac:dyDescent="0.2">
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O17" s="35" t="s">
+      <c r="O17" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O20" s="35" t="s">
+      <c r="O20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="O24" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J25" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="J27" s="37" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.2">
@@ -4669,7 +4866,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4723,37 +4920,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:K18"/>
+  <dimension ref="D7:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:19" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:19" x14ac:dyDescent="0.2">
       <c r="K8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:19" x14ac:dyDescent="0.2">
       <c r="K10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:19" x14ac:dyDescent="0.2">
       <c r="K12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:19" x14ac:dyDescent="0.2">
       <c r="K14" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="33" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="11:11" x14ac:dyDescent="0.2">
@@ -4770,17 +4972,48 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="E3:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="25" width="4.44140625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="G3" s="33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="E8" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T9" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T10" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T11" s="38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
